--- a/resources/AP2/Students.xlsx
+++ b/resources/AP2/Students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\AP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD035561-5D91-45B6-8069-6E090C029AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85788E4A-D493-4E59-88E3-69F960D9681A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A02511D4-94AE-4DE5-BF16-C315532D3E10}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A02511D4-94AE-4DE5-BF16-C315532D3E10}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,24 +37,6 @@
     <t>CNE</t>
   </si>
   <si>
-    <t>FIRSTNAME</t>
-  </si>
-  <si>
-    <t>LASTNAME</t>
-  </si>
-  <si>
-    <t>DATEOFBIRTH</t>
-  </si>
-  <si>
-    <t>CLASSNAME</t>
-  </si>
-  <si>
-    <t>PHONE</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
     <t>AP2_FN1</t>
   </si>
   <si>
@@ -133,6 +113,24 @@
   </si>
   <si>
     <t>13/08/2001</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>ClasseName</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -504,49 +502,49 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>20000001</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>37288</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
         <v>676892387</v>
@@ -556,22 +554,22 @@
         <v>AP2_FN1.AP2_LN1@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>2001</v>
+        <v>20000002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
         <v>68399439</v>
@@ -581,22 +579,22 @@
         <v>AP2_FN2.AP2_LN2@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A11" si="1">A3+1</f>
-        <v>2002</v>
+        <v>20000003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>37414</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
         <v>711904200</v>
@@ -606,22 +604,22 @@
         <v>AP2_FN3.AP2_LN3@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
-        <v>2003</v>
+        <v>20000004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <v>678128343</v>
@@ -631,22 +629,22 @@
         <v>AP2_FN4.AP2_LN4@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
-        <v>2004</v>
+        <v>20000005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
         <v>678994546</v>
@@ -656,22 +654,22 @@
         <v>AP2_FN5.AP2_LN5@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
-        <v>2005</v>
+        <v>20000006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>37904</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>621237865</v>
@@ -681,22 +679,22 @@
         <v>AP2_FN6.AP2_LN6@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
-        <v>2006</v>
+        <v>20000007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>37561</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <v>601837000</v>
@@ -706,22 +704,22 @@
         <v>AP2_FN7.AP2_LN7@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>2007</v>
+        <v>20000008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
         <v>633966612</v>
@@ -731,22 +729,22 @@
         <v>AP2_FN8.AP2_LN8@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>2008</v>
+        <v>20000009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>37378</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
         <v>765980012</v>
@@ -756,22 +754,22 @@
         <v>AP2_FN9.AP2_LN9@etu.uae.ac.ma</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>2009</v>
+        <v>20000010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1">
         <v>641234234</v>

--- a/resources/AP2/Students.xlsx
+++ b/resources/AP2/Students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\AP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85788E4A-D493-4E59-88E3-69F960D9681A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC27962-5C91-4B28-BDA3-8B26B11421FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A02511D4-94AE-4DE5-BF16-C315532D3E10}"/>
   </bookViews>
@@ -502,7 +502,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
@@ -535,10 +535,10 @@
         <v>20000001</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>37288</v>
@@ -550,7 +550,7 @@
         <v>676892387</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>CONCATENATE(B2,".",C2,"@etu.uae.ac.ma")</f>
+        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
         <v>AP2_FN1.AP2_LN1@etu.uae.ac.ma</v>
       </c>
     </row>
@@ -560,10 +560,10 @@
         <v>20000002</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -575,20 +575,20 @@
         <v>68399439</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G11" si="0">CONCATENATE(B3,".",C3,"@etu.uae.ac.ma")</f>
+        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
         <v>AP2_FN2.AP2_LN2@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="1">A3+1</f>
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>20000003</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>37414</v>
@@ -600,20 +600,20 @@
         <v>711904200</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
         <v>AP2_FN3.AP2_LN3@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20000004</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -625,20 +625,20 @@
         <v>678128343</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
         <v>AP2_FN4.AP2_LN4@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20000005</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
@@ -650,20 +650,20 @@
         <v>678994546</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
         <v>AP2_FN5.AP2_LN5@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20000006</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>37904</v>
@@ -675,20 +675,20 @@
         <v>621237865</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
         <v>AP2_FN6.AP2_LN6@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20000007</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>37561</v>
@@ -700,20 +700,20 @@
         <v>601837000</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
         <v>AP2_FN7.AP2_LN7@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20000008</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -725,20 +725,20 @@
         <v>633966612</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
         <v>AP2_FN8.AP2_LN8@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20000009</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>37378</v>
@@ -750,20 +750,20 @@
         <v>765980012</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
         <v>AP2_FN9.AP2_LN9@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20000010</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
@@ -775,7 +775,7 @@
         <v>641234234</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
         <v>AP2_FN10.AP2_LN10@etu.uae.ac.ma</v>
       </c>
     </row>

--- a/resources/AP2/Students.xlsx
+++ b/resources/AP2/Students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\AP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC27962-5C91-4B28-BDA3-8B26B11421FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2FB6A9-5604-43F0-9CA5-6E7E4670526A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A02511D4-94AE-4DE5-BF16-C315532D3E10}"/>
   </bookViews>
@@ -32,89 +32,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="158">
   <si>
     <t>CNE</t>
   </si>
   <si>
-    <t>AP2_FN1</t>
-  </si>
-  <si>
-    <t>AP2_LN1</t>
-  </si>
-  <si>
     <t>AP2</t>
   </si>
   <si>
-    <t>AP2_FN2</t>
-  </si>
-  <si>
-    <t>AP2_LN2</t>
-  </si>
-  <si>
-    <t>20/04/2002</t>
-  </si>
-  <si>
-    <t>AP2_FN3</t>
-  </si>
-  <si>
-    <t>AP2_LN3</t>
-  </si>
-  <si>
-    <t>AP2_FN4</t>
-  </si>
-  <si>
-    <t>AP2_LN4</t>
-  </si>
-  <si>
-    <t>16/05/2001</t>
-  </si>
-  <si>
-    <t>AP2_FN5</t>
-  </si>
-  <si>
-    <t>AP2_LN5</t>
-  </si>
-  <si>
-    <t>25/09/2002</t>
-  </si>
-  <si>
-    <t>AP2_FN6</t>
-  </si>
-  <si>
-    <t>AP2_LN6</t>
-  </si>
-  <si>
-    <t>AP2_FN7</t>
-  </si>
-  <si>
-    <t>AP2_LN7</t>
-  </si>
-  <si>
-    <t>AP2_FN8</t>
-  </si>
-  <si>
-    <t>AP2_LN8</t>
-  </si>
-  <si>
-    <t>23/12/2003</t>
-  </si>
-  <si>
-    <t>AP2_FN9</t>
-  </si>
-  <si>
-    <t>AP2_LN9</t>
-  </si>
-  <si>
-    <t>AP2_FN10</t>
-  </si>
-  <si>
-    <t>AP2_LN10</t>
-  </si>
-  <si>
-    <t>13/08/2001</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -131,16 +56,482 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Velma Baird</t>
+  </si>
+  <si>
+    <t>Jenna Mcmahon</t>
+  </si>
+  <si>
+    <t>Aline Aguirre</t>
+  </si>
+  <si>
+    <t>Ferris Wilkerson</t>
+  </si>
+  <si>
+    <t>Caryn Riley</t>
+  </si>
+  <si>
+    <t>Dale Mccray</t>
+  </si>
+  <si>
+    <t>Constance Salinas</t>
+  </si>
+  <si>
+    <t>Emery Cummings</t>
+  </si>
+  <si>
+    <t>Chandler Spears</t>
+  </si>
+  <si>
+    <t>Colette Hinton</t>
+  </si>
+  <si>
+    <t>Cameron Clay</t>
+  </si>
+  <si>
+    <t>Tiger Solis</t>
+  </si>
+  <si>
+    <t>Acton Sweet</t>
+  </si>
+  <si>
+    <t>Amery Foley</t>
+  </si>
+  <si>
+    <t>Carl Hayes</t>
+  </si>
+  <si>
+    <t>Medge Keller</t>
+  </si>
+  <si>
+    <t>Zane Booth</t>
+  </si>
+  <si>
+    <t>Tamara Wong</t>
+  </si>
+  <si>
+    <t>Minerva O'brien</t>
+  </si>
+  <si>
+    <t>Denise Sanchez</t>
+  </si>
+  <si>
+    <t>Octavia Marquez</t>
+  </si>
+  <si>
+    <t>Carlos Gill</t>
+  </si>
+  <si>
+    <t>Gabriel Walsh</t>
+  </si>
+  <si>
+    <t>Jemima Knight</t>
+  </si>
+  <si>
+    <t>Hasad Church</t>
+  </si>
+  <si>
+    <t>Risa Webster</t>
+  </si>
+  <si>
+    <t>Jade Murray</t>
+  </si>
+  <si>
+    <t>Kimberley Valencia</t>
+  </si>
+  <si>
+    <t>Lucas Calderon</t>
+  </si>
+  <si>
+    <t>Cyrus Spencer</t>
+  </si>
+  <si>
+    <t>Graiden Myers</t>
+  </si>
+  <si>
+    <t>Owen Cannon</t>
+  </si>
+  <si>
+    <t>Randall Nixon</t>
+  </si>
+  <si>
+    <t>Hasad Foreman</t>
+  </si>
+  <si>
+    <t>Adria Wilcox</t>
+  </si>
+  <si>
+    <t>Ursula Hudson</t>
+  </si>
+  <si>
+    <t>Bevis Whitfield</t>
+  </si>
+  <si>
+    <t>Kitra Blanchard</t>
+  </si>
+  <si>
+    <t>Lance Farrell</t>
+  </si>
+  <si>
+    <t>Desirae Park</t>
+  </si>
+  <si>
+    <t>Salvador Holden</t>
+  </si>
+  <si>
+    <t>Vaughan Ellis</t>
+  </si>
+  <si>
+    <t>Leonard Moss</t>
+  </si>
+  <si>
+    <t>August Mayer</t>
+  </si>
+  <si>
+    <t>Ryder Molina</t>
+  </si>
+  <si>
+    <t>Lucy Barnes</t>
+  </si>
+  <si>
+    <t>Jenna Cunningham</t>
+  </si>
+  <si>
+    <t>Tyrone Baker</t>
+  </si>
+  <si>
+    <t>Moana Lyons</t>
+  </si>
+  <si>
+    <t>Tucker Combs</t>
+  </si>
+  <si>
+    <t>Sierra Osborn</t>
+  </si>
+  <si>
+    <t>Wing Stephenson</t>
+  </si>
+  <si>
+    <t>Aaron Horn</t>
+  </si>
+  <si>
+    <t>Sacha Meadows</t>
+  </si>
+  <si>
+    <t>Eliana Chavez</t>
+  </si>
+  <si>
+    <t>Erasmus Battle</t>
+  </si>
+  <si>
+    <t>Caldwell Melendez</t>
+  </si>
+  <si>
+    <t>Channing Suarez</t>
+  </si>
+  <si>
+    <t>Ezekiel Berry</t>
+  </si>
+  <si>
+    <t>Oprah Lee</t>
+  </si>
+  <si>
+    <t>Raven Fowler</t>
+  </si>
+  <si>
+    <t>Rashad Rasmussen</t>
+  </si>
+  <si>
+    <t>Alfonso Guerra</t>
+  </si>
+  <si>
+    <t>Maite Sandoval</t>
+  </si>
+  <si>
+    <t>Leilani Orr</t>
+  </si>
+  <si>
+    <t>Adena Cooper</t>
+  </si>
+  <si>
+    <t>Eve Daniel</t>
+  </si>
+  <si>
+    <t>Charles Haley</t>
+  </si>
+  <si>
+    <t>Madaline Jacobson</t>
+  </si>
+  <si>
+    <t>Dacey Todd</t>
+  </si>
+  <si>
+    <t>Emery Ayers</t>
+  </si>
+  <si>
+    <t>Amir Perez</t>
+  </si>
+  <si>
+    <t>Karleigh Maxwell</t>
+  </si>
+  <si>
+    <t>Roth Mcleod</t>
+  </si>
+  <si>
+    <t>Karleigh Martinez</t>
+  </si>
+  <si>
+    <t>Shellie Russo</t>
+  </si>
+  <si>
+    <t>Sylvester Chase</t>
+  </si>
+  <si>
+    <t>John Lee</t>
+  </si>
+  <si>
+    <t>Serena Blackwell</t>
+  </si>
+  <si>
+    <t>Teegan Nash</t>
+  </si>
+  <si>
+    <t>Laith Hancock</t>
+  </si>
+  <si>
+    <t>Pearl Ortega</t>
+  </si>
+  <si>
+    <t>Brynne Sexton</t>
+  </si>
+  <si>
+    <t>Virginia Schultz</t>
+  </si>
+  <si>
+    <t>Olga Holden</t>
+  </si>
+  <si>
+    <t>Vernon Sloan</t>
+  </si>
+  <si>
+    <t>Sierra Strickland</t>
+  </si>
+  <si>
+    <t>Jesse Crawford</t>
+  </si>
+  <si>
+    <t>Driscoll Harrell</t>
+  </si>
+  <si>
+    <t>Eagan Delacruz</t>
+  </si>
+  <si>
+    <t>Herman Shields</t>
+  </si>
+  <si>
+    <t>Lester Finley</t>
+  </si>
+  <si>
+    <t>Lesley Mcgowan</t>
+  </si>
+  <si>
+    <t>Rudyard Guy</t>
+  </si>
+  <si>
+    <t>Cairo Hoover</t>
+  </si>
+  <si>
+    <t>Lacota Gay</t>
+  </si>
+  <si>
+    <t>Imelda Becker</t>
+  </si>
+  <si>
+    <t>Bo Alvarado</t>
+  </si>
+  <si>
+    <t>Octavius Holloway</t>
+  </si>
+  <si>
+    <t>Kylee Maddox</t>
+  </si>
+  <si>
+    <t>03 15 32 74 90</t>
+  </si>
+  <si>
+    <t>01 26 95 94 46</t>
+  </si>
+  <si>
+    <t>05 65 64 29 29</t>
+  </si>
+  <si>
+    <t>05 75 43 83 31</t>
+  </si>
+  <si>
+    <t>02 52 86 98 82</t>
+  </si>
+  <si>
+    <t>07 58 16 14 11</t>
+  </si>
+  <si>
+    <t>05 87 82 74 26</t>
+  </si>
+  <si>
+    <t>08 38 15 22 40</t>
+  </si>
+  <si>
+    <t>01 27 12 14 26</t>
+  </si>
+  <si>
+    <t>06 03 05 13 76</t>
+  </si>
+  <si>
+    <t>02 25 21 45 20</t>
+  </si>
+  <si>
+    <t>07 39 78 36 25</t>
+  </si>
+  <si>
+    <t>06 24 13 56 54</t>
+  </si>
+  <si>
+    <t>06 78 05 04 12</t>
+  </si>
+  <si>
+    <t>01 13 44 31 59</t>
+  </si>
+  <si>
+    <t>01 73 15 92 42</t>
+  </si>
+  <si>
+    <t>07 24 00 58 65</t>
+  </si>
+  <si>
+    <t>04 61 22 53 07</t>
+  </si>
+  <si>
+    <t>04 85 14 26 10</t>
+  </si>
+  <si>
+    <t>06 95 03 36 81</t>
+  </si>
+  <si>
+    <t>05 45 42 95 96</t>
+  </si>
+  <si>
+    <t>07 58 68 84 05</t>
+  </si>
+  <si>
+    <t>07 66 96 72 78</t>
+  </si>
+  <si>
+    <t>02 76 46 33 35</t>
+  </si>
+  <si>
+    <t>07 82 52 89 74</t>
+  </si>
+  <si>
+    <t>04 76 77 34 01</t>
+  </si>
+  <si>
+    <t>02 43 95 14 17</t>
+  </si>
+  <si>
+    <t>03 71 81 23 37</t>
+  </si>
+  <si>
+    <t>03 76 77 77 64</t>
+  </si>
+  <si>
+    <t>08 32 17 61 87</t>
+  </si>
+  <si>
+    <t>03 29 75 12 06</t>
+  </si>
+  <si>
+    <t>03 64 87 86 88</t>
+  </si>
+  <si>
+    <t>05 88 13 78 11</t>
+  </si>
+  <si>
+    <t>09 34 80 13 79</t>
+  </si>
+  <si>
+    <t>05 57 98 59 34</t>
+  </si>
+  <si>
+    <t>06 81 03 96 43</t>
+  </si>
+  <si>
+    <t>01 06 38 96 54</t>
+  </si>
+  <si>
+    <t>08 34 41 55 84</t>
+  </si>
+  <si>
+    <t>01 20 13 12 51</t>
+  </si>
+  <si>
+    <t>08 82 93 64 31</t>
+  </si>
+  <si>
+    <t>05 14 18 59 44</t>
+  </si>
+  <si>
+    <t>01 80 25 68 69</t>
+  </si>
+  <si>
+    <t>01 64 39 63 43</t>
+  </si>
+  <si>
+    <t>03 86 38 75 91</t>
+  </si>
+  <si>
+    <t>04 29 59 13 16</t>
+  </si>
+  <si>
+    <t>05 47 07 42 68</t>
+  </si>
+  <si>
+    <t>05 56 88 68 31</t>
+  </si>
+  <si>
+    <t>07 41 88 10 39</t>
+  </si>
+  <si>
+    <t>07 28 54 57 94</t>
+  </si>
+  <si>
+    <t>07 25 84 88 37</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,7 +575,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CD3806-0084-4133-B207-AED84EDF8CC4}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,46 +903,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>20000001</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
       </c>
       <c r="D2" s="2">
-        <v>37288</v>
+        <v>35511</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>676892387</v>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>CONCATENATE(C2,".",B2,"@etu.uae.ac.ma")</f>
-        <v>AP2_FN1.AP2_LN1@etu.uae.ac.ma</v>
+        <f>CONCATENATE(SUBSTITUTE(B2," ",""),".",SUBSTITUTE(C2," ",""),"@etu.uae.ac.ma")</f>
+        <v>BoAlvarado.ImeldaBecker@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -559,227 +950,1228 @@
         <f>A2+1</f>
         <v>20000002</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="2">
+        <v>36838</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>68399439</v>
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>109</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>CONCATENATE(C3,".",B3,"@etu.uae.ac.ma")</f>
-        <v>AP2_FN2.AP2_LN2@etu.uae.ac.ma</v>
+        <f t="shared" ref="G3:G51" si="0">CONCATENATE(SUBSTITUTE(B3," ",""),".",SUBSTITUTE(C3," ",""),"@etu.uae.ac.ma")</f>
+        <v>LacotaGay.CairoHoover@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="0">A3+1</f>
+        <f t="shared" ref="A4:A51" si="1">A3+1</f>
         <v>20000003</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
       </c>
       <c r="D4" s="2">
-        <v>37414</v>
+        <v>36335</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>711904200</v>
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>CONCATENATE(C4,".",B4,"@etu.uae.ac.ma")</f>
-        <v>AP2_FN3.AP2_LN3@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>RudyardGuy.LesleyMcgowan@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000004</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2">
+        <v>35550</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>678128343</v>
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>CONCATENATE(C5,".",B5,"@etu.uae.ac.ma")</f>
-        <v>AP2_FN4.AP2_LN4@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>LesterFinley.HermanShields@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000005</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="2">
+        <v>36562</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>678994546</v>
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>CONCATENATE(C6,".",B6,"@etu.uae.ac.ma")</f>
-        <v>AP2_FN5.AP2_LN5@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>EaganDelacruz.DriscollHarrell@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000006</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
       </c>
       <c r="D7" s="2">
-        <v>37904</v>
+        <v>36062</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>621237865</v>
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>113</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>CONCATENATE(C7,".",B7,"@etu.uae.ac.ma")</f>
-        <v>AP2_FN6.AP2_LN6@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>JesseCrawford.SierraStrickland@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000007</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
       </c>
       <c r="D8" s="2">
-        <v>37561</v>
+        <v>36153</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>601837000</v>
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>CONCATENATE(C8,".",B8,"@etu.uae.ac.ma")</f>
-        <v>AP2_FN7.AP2_LN7@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>VernonSloan.OlgaHolden@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000008</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="2">
+        <v>36029</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>633966612</v>
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>CONCATENATE(C9,".",B9,"@etu.uae.ac.ma")</f>
-        <v>AP2_FN8.AP2_LN8@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>VirginiaSchultz.BrynneSexton@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000009</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
       </c>
       <c r="D10" s="2">
-        <v>37378</v>
+        <v>35936</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1">
-        <v>765980012</v>
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>CONCATENATE(C10,".",B10,"@etu.uae.ac.ma")</f>
-        <v>AP2_FN9.AP2_LN9@etu.uae.ac.ma</v>
+        <f t="shared" si="0"/>
+        <v>PearlOrtega.LaithHancock@etu.uae.ac.ma</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000010</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="2">
+        <v>37216</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TeeganNash.SerenaBlackwell@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>20000011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="2">
+        <v>36599</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>JohnLee.SylvesterChase@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>20000012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2">
+        <v>35659</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ShellieRusso.KarleighMartinez@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>20000013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2">
+        <v>37433</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RothMcleod.KarleighMaxwell@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>20000014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="2">
+        <v>35784</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AmirPerez.EmeryAyers@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>20000015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2">
+        <v>36441</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DaceyTodd.MadalineJacobson@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>20000016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2">
+        <v>36224</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CharlesHaley.EveDaniel@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>20000017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2">
+        <v>35731</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AdenaCooper.LeilaniOrr@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>20000018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2">
+        <v>36000</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MaiteSandoval.AlfonsoGuerra@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>20000019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="2">
+        <v>36738</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RashadRasmussen.RavenFowler@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>20000020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2">
+        <v>35572</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OprahLee.EzekielBerry@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>20000021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2">
+        <v>37031</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ChanningSuarez.CaldwellMelendez@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>20000022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2">
+        <v>36182</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ErasmusBattle.ElianaChavez@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>20000023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2">
+        <v>36854</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SachaMeadows.AaronHorn@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>20000024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2">
+        <v>37052</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>WingStephenson.SierraOsborn@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>20000025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2">
+        <v>36000</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TuckerCombs.MoanaLyons@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>20000026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="2">
+        <v>36046</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TyroneBaker.JennaCunningham@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>20000027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2">
+        <v>35565</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LucyBarnes.RyderMolina@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>20000028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="2">
+        <v>37403</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AugustMayer.LeonardMoss@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>20000029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2">
+        <v>35537</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>VaughanEllis.SalvadorHolden@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>20000030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="2">
+        <v>35682</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DesiraePark.LanceFarrell@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>20000031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2">
+        <v>37605</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>KitraBlanchard.BevisWhitfield@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>20000032</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="2">
+        <v>35855</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>UrsulaHudson.AdriaWilcox@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>20000033</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="2">
+        <v>36610</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>HasadForeman.RandallNixon@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>20000034</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="2">
+        <v>36305</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OwenCannon.GraidenMyers@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>20000035</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="2">
+        <v>36613</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CyrusSpencer.LucasCalderon@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>20000036</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="2">
+        <v>37441</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>KimberleyValencia.JadeMurray@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>20000037</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="2">
+        <v>36724</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RisaWebster.HasadChurch@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>20000038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2">
+        <v>35569</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>JemimaKnight.GabrielWalsh@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>20000039</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="2">
+        <v>37167</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CarlosGill.OctaviaMarquez@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>20000040</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="2">
+        <v>35990</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DeniseSanchez.MinervaO'brien@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>20000041</v>
+      </c>
+      <c r="B42" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C42" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1">
-        <v>641234234</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f>CONCATENATE(C11,".",B11,"@etu.uae.ac.ma")</f>
-        <v>AP2_FN10.AP2_LN10@etu.uae.ac.ma</v>
+      <c r="D42" s="2">
+        <v>36082</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TamaraWong.ZaneBooth@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>20000042</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="2">
+        <v>36075</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MedgeKeller.CarlHayes@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>20000043</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="2">
+        <v>36597</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>AmeryFoley.ActonSweet@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>20000044</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2">
+        <v>35600</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TigerSolis.CameronClay@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>20000045</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="2">
+        <v>36944</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ColetteHinton.ChandlerSpears@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>20000046</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2">
+        <v>36223</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>EmeryCummings.ConstanceSalinas@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>20000047</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2">
+        <v>36722</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DaleMccray.CarynRiley@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <f t="shared" si="1"/>
+        <v>20000048</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2">
+        <v>35902</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>FerrisWilkerson.AlineAguirre@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <f t="shared" si="1"/>
+        <v>20000049</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2">
+        <v>36512</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>JennaMcmahon.VelmaBaird@etu.uae.ac.ma</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <f t="shared" si="1"/>
+        <v>20000050</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="2">
+        <v>37563</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>KyleeMaddox.OctaviusHolloway@etu.uae.ac.ma</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/AP2/Students.xlsx
+++ b/resources/AP2/Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\AP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2FB6A9-5604-43F0-9CA5-6E7E4670526A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625B1C9B-9A42-440B-93E9-1C4B7ADC9446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A02511D4-94AE-4DE5-BF16-C315532D3E10}"/>
   </bookViews>
@@ -893,7 +893,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
